--- a/downloaded_files/MCNS327_Tutorial-35611.xlsx
+++ b/downloaded_files/MCNS327_Tutorial-35611.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t xml:space="preserve"> Ahmed Omar Badry Badawy Metwaly</x:t>
   </x:si>
   <x:si>
+    <x:t>1210191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد مجدي محمد عبدالحميد ابوزيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Magdy Mohamed Abdelhamid Abouzidmid</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200398</x:t>
   </x:si>
   <x:si>
@@ -136,6 +145,15 @@
   </x:si>
   <x:si>
     <x:t>Aly Eldeen Mohamed Hamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد ناجى محمود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali mohamed nagy mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230230</x:t>
@@ -314,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -614,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -623,8 +641,8 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.540625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.990625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -801,7 +819,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.6847966088</x:v>
+        <x:v>45927.4521074074</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -833,7 +851,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4165448727</x:v>
+        <x:v>45909.6847966088</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -861,9 +879,11 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4190637384</x:v>
+        <x:v>45907.4165448727</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -886,16 +906,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.417322338</x:v>
+        <x:v>45907.4190637384</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -927,7 +945,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.417322338</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -959,7 +977,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4331547454</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -991,7 +1009,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.414672338</x:v>
+        <x:v>45909.4331547454</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1023,7 +1041,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4171753125</x:v>
+        <x:v>45907.414672338</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1055,7 +1073,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6675802083</x:v>
+        <x:v>45907.4171753125</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1087,7 +1105,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45907.6675802083</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1119,7 +1137,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6663289352</x:v>
+        <x:v>45927.6555133102</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1151,7 +1169,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6904955208</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1183,7 +1201,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4152035532</x:v>
+        <x:v>45907.6663289352</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1215,7 +1233,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4174353357</x:v>
+        <x:v>45906.6904955208</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1247,7 +1265,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4152035532</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1279,7 +1297,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.6204527778</x:v>
+        <x:v>45907.4174353357</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1296,6 +1314,70 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45907.415737581</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45909.6204527778</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
